--- a/JupyterNotebooks/AveragedIntensites/SA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SA-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9976348003091905</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.085862455819836</v>
+      </c>
+      <c r="D16">
+        <v>0.8713262723555942</v>
+      </c>
+      <c r="E16">
+        <v>1.024422867435443</v>
+      </c>
+      <c r="F16">
+        <v>0.9630349633590677</v>
+      </c>
+      <c r="G16">
+        <v>1.085862455819836</v>
+      </c>
+      <c r="H16">
+        <v>0.8713262723555942</v>
+      </c>
+      <c r="I16">
+        <v>1.040908964541113</v>
+      </c>
+      <c r="J16">
+        <v>0.9615677810982491</v>
+      </c>
+      <c r="K16">
+        <v>1.029507205846422</v>
+      </c>
+      <c r="L16">
+        <v>0.9138907047003079</v>
+      </c>
+      <c r="M16">
+        <v>1.085862455819836</v>
+      </c>
+      <c r="N16">
+        <v>0.9478745698955184</v>
+      </c>
+      <c r="O16">
+        <v>0.9861616397424852</v>
+      </c>
+      <c r="P16">
+        <v>0.9863151518945041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.085862455819836</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.078239999999999</v>
+        <v>1.085862455819836</v>
       </c>
       <c r="D10">
-        <v>0.5082959999999994</v>
+        <v>0.8713262723555942</v>
       </c>
       <c r="E10">
-        <v>1.196912000000001</v>
+        <v>1.024422867435443</v>
       </c>
       <c r="F10">
-        <v>0.9204000000000014</v>
+        <v>0.9630349633590677</v>
       </c>
       <c r="G10">
-        <v>1.078239999999999</v>
+        <v>1.085862455819836</v>
       </c>
       <c r="H10">
-        <v>0.5082959999999994</v>
+        <v>0.8713262723555942</v>
       </c>
       <c r="I10">
-        <v>1.162488</v>
+        <v>1.040908964541113</v>
       </c>
       <c r="J10">
-        <v>0.9703040000000006</v>
+        <v>0.9615677810982491</v>
       </c>
       <c r="K10">
-        <v>1.064476</v>
+        <v>1.029507205846422</v>
       </c>
       <c r="L10">
-        <v>0.7337119999999988</v>
+        <v>0.9138907047003079</v>
       </c>
       <c r="M10">
-        <v>1.078239999999999</v>
+        <v>1.085862455819836</v>
       </c>
       <c r="N10">
-        <v>0.8526040000000003</v>
+        <v>0.9478745698955184</v>
       </c>
       <c r="O10">
-        <v>0.9259620000000002</v>
+        <v>0.9861616397424852</v>
       </c>
       <c r="P10">
-        <v>0.9543535000000001</v>
+        <v>0.9863151518945041</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.27</v>
+        <v>1.114708114139406</v>
       </c>
       <c r="D11">
-        <v>0.37</v>
+        <v>0.6006174684130715</v>
       </c>
       <c r="E11">
-        <v>1.159037499999999</v>
+        <v>1.153746311384436</v>
       </c>
       <c r="F11">
-        <v>0.8887624999999986</v>
+        <v>0.9217924137232786</v>
       </c>
       <c r="G11">
-        <v>1.27</v>
+        <v>1.114708114139406</v>
       </c>
       <c r="H11">
-        <v>0.37</v>
+        <v>0.6006174684130715</v>
       </c>
       <c r="I11">
-        <v>1.2</v>
+        <v>1.134451646361478</v>
       </c>
       <c r="J11">
-        <v>0.9</v>
+        <v>0.9675118581266544</v>
       </c>
       <c r="K11">
-        <v>1.14</v>
+        <v>1.046718985102587</v>
       </c>
       <c r="L11">
-        <v>0.6504125000000009</v>
+        <v>0.7625032335578964</v>
       </c>
       <c r="M11">
-        <v>1.27</v>
+        <v>1.114708114139406</v>
       </c>
       <c r="N11">
-        <v>0.7645187499999997</v>
+        <v>0.8771818898987538</v>
       </c>
       <c r="O11">
-        <v>0.9219499999999995</v>
+        <v>0.9477160769150481</v>
       </c>
       <c r="P11">
-        <v>0.9472765624999999</v>
+        <v>0.962756253851101</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.155729498931197</v>
+        <v>1.11305208865475</v>
       </c>
       <c r="D12">
-        <v>0.6308878486527995</v>
+        <v>0.6015748337831831</v>
       </c>
       <c r="E12">
-        <v>1.090460602470403</v>
+        <v>1.154018127142483</v>
       </c>
       <c r="F12">
-        <v>0.9334075994112002</v>
+        <v>0.9220884109404153</v>
       </c>
       <c r="G12">
-        <v>1.155729498931197</v>
+        <v>1.11305208865475</v>
       </c>
       <c r="H12">
-        <v>0.6308878486527995</v>
+        <v>0.6015748337831831</v>
       </c>
       <c r="I12">
-        <v>1.113091754393599</v>
+        <v>1.134120549074348</v>
       </c>
       <c r="J12">
-        <v>0.9390514733056002</v>
+        <v>0.9681174964780849</v>
       </c>
       <c r="K12">
-        <v>1.079033863577601</v>
+        <v>1.046147749270361</v>
       </c>
       <c r="L12">
-        <v>0.7941037745152006</v>
+        <v>0.7631995844351823</v>
       </c>
       <c r="M12">
-        <v>1.155743196979197</v>
+        <v>1.11305208865475</v>
       </c>
       <c r="N12">
-        <v>0.8606742255616013</v>
+        <v>0.8777964804628329</v>
       </c>
       <c r="O12">
-        <v>0.9526213873664001</v>
+        <v>0.9476833651302077</v>
       </c>
       <c r="P12">
-        <v>0.9669708019072002</v>
+        <v>0.9627898549723508</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961627733308653</v>
+        <v>1.114084987253522</v>
       </c>
       <c r="D13">
-        <v>0.9954616113850157</v>
+        <v>0.6007615003955121</v>
       </c>
       <c r="E13">
-        <v>0.9925754255458323</v>
+        <v>1.154034963599041</v>
       </c>
       <c r="F13">
-        <v>0.9934033191233169</v>
+        <v>0.9218521564578324</v>
       </c>
       <c r="G13">
-        <v>0.9961627733308653</v>
+        <v>1.114084987253522</v>
       </c>
       <c r="H13">
-        <v>0.9954616113850157</v>
+        <v>0.6007615003955121</v>
       </c>
       <c r="I13">
-        <v>0.9932338895205907</v>
+        <v>1.134462897306897</v>
       </c>
       <c r="J13">
-        <v>0.9940763603872199</v>
+        <v>0.9677160299405011</v>
       </c>
       <c r="K13">
-        <v>0.9946601343219788</v>
+        <v>1.046520114410513</v>
       </c>
       <c r="L13">
-        <v>0.993023873026385</v>
+        <v>0.7625665983636871</v>
       </c>
       <c r="M13">
-        <v>0.9961481222945894</v>
+        <v>1.114084987253522</v>
       </c>
       <c r="N13">
-        <v>0.994018518465424</v>
+        <v>0.8773982319972766</v>
       </c>
       <c r="O13">
-        <v>0.9944007823462575</v>
+        <v>0.9476834019264769</v>
       </c>
       <c r="P13">
-        <v>0.9940746733301505</v>
+        <v>0.9627499059659383</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9699578582884512</v>
+        <v>1.078239999999999</v>
       </c>
       <c r="D14">
-        <v>1.001093856851548</v>
+        <v>0.5082959999999994</v>
       </c>
       <c r="E14">
-        <v>0.9988017482194915</v>
+        <v>1.196912000000001</v>
       </c>
       <c r="F14">
-        <v>0.9966378367534938</v>
+        <v>0.9204000000000014</v>
       </c>
       <c r="G14">
-        <v>0.9699578582884512</v>
+        <v>1.078239999999999</v>
       </c>
       <c r="H14">
-        <v>1.001093856851548</v>
+        <v>0.5082959999999994</v>
       </c>
       <c r="I14">
-        <v>0.9895236445017332</v>
+        <v>1.162488</v>
       </c>
       <c r="J14">
-        <v>1.004476003849169</v>
+        <v>0.9703040000000006</v>
       </c>
       <c r="K14">
-        <v>0.9872716314665544</v>
+        <v>1.064476</v>
       </c>
       <c r="L14">
-        <v>1.001378087654717</v>
+        <v>0.7337119999999988</v>
       </c>
       <c r="M14">
-        <v>0.9699578582884512</v>
+        <v>1.078239999999999</v>
       </c>
       <c r="N14">
-        <v>0.9999478025355196</v>
+        <v>0.8526040000000003</v>
       </c>
       <c r="O14">
-        <v>0.9916228250282461</v>
+        <v>0.9259620000000002</v>
       </c>
       <c r="P14">
-        <v>0.9936425834481446</v>
+        <v>0.9543535000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9519787668981505</v>
+        <v>1.27</v>
       </c>
       <c r="D15">
-        <v>1.050791318024163</v>
+        <v>0.37</v>
       </c>
       <c r="E15">
-        <v>0.9798486923921472</v>
+        <v>1.159037499999999</v>
       </c>
       <c r="F15">
-        <v>1.008272675561295</v>
+        <v>0.8887624999999986</v>
       </c>
       <c r="G15">
-        <v>0.9519787668981505</v>
+        <v>1.27</v>
       </c>
       <c r="H15">
-        <v>1.050791318024163</v>
+        <v>0.37</v>
       </c>
       <c r="I15">
-        <v>0.9700717184445251</v>
+        <v>1.2</v>
       </c>
       <c r="J15">
-        <v>1.00620327622867</v>
+        <v>0.9</v>
       </c>
       <c r="K15">
-        <v>0.9801747954425981</v>
+        <v>1.14</v>
       </c>
       <c r="L15">
-        <v>1.033737159481975</v>
+        <v>0.6504125000000009</v>
       </c>
       <c r="M15">
-        <v>0.9519949888252082</v>
+        <v>1.27</v>
       </c>
       <c r="N15">
-        <v>1.015320005208155</v>
+        <v>0.7645187499999997</v>
       </c>
       <c r="O15">
-        <v>0.997722863218939</v>
+        <v>0.9219499999999995</v>
       </c>
       <c r="P15">
-        <v>0.9976348003091905</v>
+        <v>0.9472765624999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.085862455819836</v>
+        <v>1.155729498931197</v>
       </c>
       <c r="D16">
-        <v>0.8713262723555942</v>
+        <v>0.6308878486527995</v>
       </c>
       <c r="E16">
-        <v>1.024422867435443</v>
+        <v>1.090460602470403</v>
       </c>
       <c r="F16">
-        <v>0.9630349633590677</v>
+        <v>0.9334075994112002</v>
       </c>
       <c r="G16">
-        <v>1.085862455819836</v>
+        <v>1.155729498931197</v>
       </c>
       <c r="H16">
-        <v>0.8713262723555942</v>
+        <v>0.6308878486527995</v>
       </c>
       <c r="I16">
-        <v>1.040908964541113</v>
+        <v>1.113091754393599</v>
       </c>
       <c r="J16">
-        <v>0.9615677810982491</v>
+        <v>0.9390514733056002</v>
       </c>
       <c r="K16">
-        <v>1.029507205846422</v>
+        <v>1.079033863577601</v>
       </c>
       <c r="L16">
-        <v>0.9138907047003079</v>
+        <v>0.7941037745152006</v>
       </c>
       <c r="M16">
-        <v>1.085862455819836</v>
+        <v>1.155743196979197</v>
       </c>
       <c r="N16">
-        <v>0.9478745698955184</v>
+        <v>0.8606742255616013</v>
       </c>
       <c r="O16">
-        <v>0.9861616397424852</v>
+        <v>0.9526213873664001</v>
       </c>
       <c r="P16">
-        <v>0.9863151518945041</v>
+        <v>0.9669708019072002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9961627733308653</v>
+      </c>
+      <c r="D17">
+        <v>0.9954616113850157</v>
+      </c>
+      <c r="E17">
+        <v>0.9925754255458323</v>
+      </c>
+      <c r="F17">
+        <v>0.9934033191233169</v>
+      </c>
+      <c r="G17">
+        <v>0.9961627733308653</v>
+      </c>
+      <c r="H17">
+        <v>0.9954616113850157</v>
+      </c>
+      <c r="I17">
+        <v>0.9932338895205907</v>
+      </c>
+      <c r="J17">
+        <v>0.9940763603872199</v>
+      </c>
+      <c r="K17">
+        <v>0.9946601343219788</v>
+      </c>
+      <c r="L17">
+        <v>0.993023873026385</v>
+      </c>
+      <c r="M17">
+        <v>0.9961481222945894</v>
+      </c>
+      <c r="N17">
+        <v>0.994018518465424</v>
+      </c>
+      <c r="O17">
+        <v>0.9944007823462575</v>
+      </c>
+      <c r="P17">
+        <v>0.9940746733301505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9699578582884512</v>
+      </c>
+      <c r="D18">
+        <v>1.001093856851548</v>
+      </c>
+      <c r="E18">
+        <v>0.9988017482194915</v>
+      </c>
+      <c r="F18">
+        <v>0.9966378367534938</v>
+      </c>
+      <c r="G18">
+        <v>0.9699578582884512</v>
+      </c>
+      <c r="H18">
+        <v>1.001093856851548</v>
+      </c>
+      <c r="I18">
+        <v>0.9895236445017332</v>
+      </c>
+      <c r="J18">
+        <v>1.004476003849169</v>
+      </c>
+      <c r="K18">
+        <v>0.9872716314665544</v>
+      </c>
+      <c r="L18">
+        <v>1.001378087654717</v>
+      </c>
+      <c r="M18">
+        <v>0.9699578582884512</v>
+      </c>
+      <c r="N18">
+        <v>0.9999478025355196</v>
+      </c>
+      <c r="O18">
+        <v>0.9916228250282461</v>
+      </c>
+      <c r="P18">
+        <v>0.9936425834481446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9519787668981505</v>
+      </c>
+      <c r="D19">
+        <v>1.050791318024163</v>
+      </c>
+      <c r="E19">
+        <v>0.9798486923921472</v>
+      </c>
+      <c r="F19">
+        <v>1.008272675561295</v>
+      </c>
+      <c r="G19">
+        <v>0.9519787668981505</v>
+      </c>
+      <c r="H19">
+        <v>1.050791318024163</v>
+      </c>
+      <c r="I19">
+        <v>0.9700717184445251</v>
+      </c>
+      <c r="J19">
+        <v>1.00620327622867</v>
+      </c>
+      <c r="K19">
+        <v>0.9801747954425981</v>
+      </c>
+      <c r="L19">
+        <v>1.033737159481975</v>
+      </c>
+      <c r="M19">
+        <v>0.9519949888252082</v>
+      </c>
+      <c r="N19">
+        <v>1.015320005208155</v>
+      </c>
+      <c r="O19">
+        <v>0.997722863218939</v>
+      </c>
+      <c r="P19">
+        <v>0.9976348003091905</v>
       </c>
     </row>
   </sheetData>
